--- a/DataInventory_All_3_programmes.xlsx
+++ b/DataInventory_All_3_programmes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01404747\Documents\GitHub\Pathways_to_Low_Fertility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecpsitim\Documents\git\Stata\Pathways_to_Low_Fertility\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7716"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -8070,36 +8070,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA330"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="3" customWidth="1"/>
     <col min="6" max="6" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="23.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="23.6328125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="1.81640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="3" customWidth="1"/>
-    <col min="16" max="17" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1796875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625"/>
-    <col min="21" max="22" width="9.1796875" style="3"/>
-    <col min="23" max="24" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="11.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="23.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="1.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="3" customWidth="1"/>
+    <col min="16" max="17" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.21875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375"/>
+    <col min="21" max="22" width="9.21875" style="3"/>
+    <col min="23" max="24" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>642</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42794</v>
       </c>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42382</v>
       </c>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43462</v>
       </c>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42382</v>
       </c>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42382</v>
       </c>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42382</v>
       </c>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42990</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42919</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42382</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>38915</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>38915</v>
       </c>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>38915</v>
       </c>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>39014</v>
       </c>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>39938</v>
       </c>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42382</v>
       </c>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42563</v>
       </c>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42383</v>
       </c>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>38915</v>
       </c>
@@ -8944,7 +8944,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38915</v>
       </c>
@@ -8986,7 +8986,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>39283</v>
       </c>
@@ -9028,7 +9028,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42382</v>
       </c>
@@ -9070,7 +9070,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>38915</v>
       </c>
@@ -9112,7 +9112,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>38915</v>
       </c>
@@ -9154,7 +9154,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>39381</v>
       </c>
@@ -9196,7 +9196,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42382</v>
       </c>
@@ -9238,7 +9238,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42404</v>
       </c>
@@ -9283,7 +9283,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42382</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42382</v>
       </c>
@@ -9367,7 +9367,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42382</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42382</v>
       </c>
@@ -9451,7 +9451,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42382</v>
       </c>
@@ -9493,7 +9493,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42382</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42382</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42382</v>
       </c>
@@ -9619,7 +9619,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>38915</v>
       </c>
@@ -9661,7 +9661,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42382</v>
       </c>
@@ -9703,7 +9703,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43291</v>
       </c>
@@ -9744,7 +9744,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42382</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42382</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38915</v>
       </c>
@@ -9870,7 +9870,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42382</v>
       </c>
@@ -9912,7 +9912,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42382</v>
       </c>
@@ -9954,7 +9954,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>39029</v>
       </c>
@@ -9995,7 +9995,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>38915</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42382</v>
       </c>
@@ -10077,7 +10077,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42404</v>
       </c>
@@ -10121,7 +10121,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>38915</v>
       </c>
@@ -10163,7 +10163,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>38915</v>
       </c>
@@ -10205,7 +10205,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>39577</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42382</v>
       </c>
@@ -10289,7 +10289,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42383</v>
       </c>
@@ -10334,7 +10334,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42382</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42382</v>
       </c>
@@ -10418,7 +10418,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42382</v>
       </c>
@@ -10460,7 +10460,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42382</v>
       </c>
@@ -10502,7 +10502,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42382</v>
       </c>
@@ -10544,7 +10544,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42382</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43291</v>
       </c>
@@ -10627,7 +10627,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42383</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42704</v>
       </c>
@@ -10712,7 +10712,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42383</v>
       </c>
@@ -10756,7 +10756,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42382</v>
       </c>
@@ -10797,7 +10797,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42382</v>
       </c>
@@ -10838,7 +10838,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42382</v>
       </c>
@@ -10879,7 +10879,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42382</v>
       </c>
@@ -10920,7 +10920,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42382</v>
       </c>
@@ -10961,7 +10961,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>42382</v>
       </c>
@@ -11002,7 +11002,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>42382</v>
       </c>
@@ -11043,7 +11043,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>42383</v>
       </c>
@@ -11087,7 +11087,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>42383</v>
       </c>
@@ -11131,7 +11131,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>42704</v>
       </c>
@@ -11171,7 +11171,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42704</v>
       </c>
@@ -11211,7 +11211,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>42704</v>
       </c>
@@ -11251,7 +11251,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>42382</v>
       </c>
@@ -11292,7 +11292,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>42383</v>
       </c>
@@ -11336,7 +11336,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42382</v>
       </c>
@@ -11377,7 +11377,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>42382</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>42382</v>
       </c>
@@ -11459,7 +11459,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>42382</v>
       </c>
@@ -11500,7 +11500,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42382</v>
       </c>
@@ -11541,7 +11541,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42382</v>
       </c>
@@ -11582,7 +11582,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42382</v>
       </c>
@@ -11623,7 +11623,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>42383</v>
       </c>
@@ -11667,7 +11667,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42704</v>
       </c>
@@ -11707,7 +11707,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42704</v>
       </c>
@@ -11747,7 +11747,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42704</v>
       </c>
@@ -11787,7 +11787,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42382</v>
       </c>
@@ -11828,7 +11828,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>38915</v>
       </c>
@@ -11870,7 +11870,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>40037</v>
       </c>
@@ -11912,7 +11912,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42382</v>
       </c>
@@ -11954,7 +11954,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42990</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
         <v>42383</v>
       </c>
@@ -12034,7 +12034,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42382</v>
       </c>
@@ -12076,7 +12076,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>42382</v>
       </c>
@@ -12118,7 +12118,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>38915</v>
       </c>
@@ -12160,7 +12160,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>38915</v>
       </c>
@@ -12202,7 +12202,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>38915</v>
       </c>
@@ -12244,7 +12244,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>38915</v>
       </c>
@@ -12286,7 +12286,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>40094</v>
       </c>
@@ -12328,7 +12328,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>42382</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>42383</v>
       </c>
@@ -12415,7 +12415,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>42382</v>
       </c>
@@ -12457,7 +12457,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>38915</v>
       </c>
@@ -12499,7 +12499,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>39770</v>
       </c>
@@ -12541,7 +12541,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>42382</v>
       </c>
@@ -12583,7 +12583,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>42704</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>42704</v>
       </c>
@@ -12664,7 +12664,7 @@
       <c r="Y108" s="15"/>
       <c r="Z108" s="9"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42382</v>
       </c>
@@ -12706,7 +12706,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>42382</v>
       </c>
@@ -12748,7 +12748,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>42804</v>
       </c>
@@ -12788,7 +12788,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>42382</v>
       </c>
@@ -12830,7 +12830,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>42383</v>
       </c>
@@ -12875,7 +12875,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>42704</v>
       </c>
@@ -12916,7 +12916,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>42704</v>
       </c>
@@ -12956,7 +12956,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>42382</v>
       </c>
@@ -12998,7 +12998,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>42382</v>
       </c>
@@ -13040,7 +13040,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>42382</v>
       </c>
@@ -13082,7 +13082,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42382</v>
       </c>
@@ -13124,7 +13124,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42382</v>
       </c>
@@ -13166,7 +13166,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42382</v>
       </c>
@@ -13208,7 +13208,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43332</v>
       </c>
@@ -13248,7 +13248,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>42383</v>
       </c>
@@ -13293,7 +13293,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>42382</v>
       </c>
@@ -13335,7 +13335,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>42382</v>
       </c>
@@ -13377,7 +13377,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>42382</v>
       </c>
@@ -13419,7 +13419,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43291</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>38915</v>
       </c>
@@ -13502,7 +13502,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>38915</v>
       </c>
@@ -13544,7 +13544,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>38915</v>
       </c>
@@ -13586,7 +13586,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>38915</v>
       </c>
@@ -13628,7 +13628,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>38915</v>
       </c>
@@ -13670,7 +13670,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>39934</v>
       </c>
@@ -13712,7 +13712,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>42382</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>42383</v>
       </c>
@@ -13796,7 +13796,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="24">
         <v>42396</v>
       </c>
@@ -13837,7 +13837,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>42382</v>
       </c>
@@ -13879,7 +13879,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>42382</v>
       </c>
@@ -13921,7 +13921,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>42382</v>
       </c>
@@ -13963,7 +13963,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>42382</v>
       </c>
@@ -14005,7 +14005,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>42382</v>
       </c>
@@ -14047,7 +14047,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="2"/>
     </row>
-    <row r="142" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>42404</v>
       </c>
@@ -14092,7 +14092,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>38916</v>
       </c>
@@ -14134,7 +14134,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>38916</v>
       </c>
@@ -14176,7 +14176,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>38916</v>
       </c>
@@ -14218,7 +14218,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>38916</v>
       </c>
@@ -14260,7 +14260,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>40486</v>
       </c>
@@ -14302,7 +14302,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>42375</v>
       </c>
@@ -14344,7 +14344,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>42383</v>
       </c>
@@ -14389,7 +14389,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>42382</v>
       </c>
@@ -14431,7 +14431,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>42382</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>42382</v>
       </c>
@@ -14515,7 +14515,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>42382</v>
       </c>
@@ -14558,7 +14558,7 @@
       <c r="Y153" s="15"/>
       <c r="Z153" s="9"/>
     </row>
-    <row r="154" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43292</v>
       </c>
@@ -14599,7 +14599,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43292</v>
       </c>
@@ -14641,7 +14641,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>42382</v>
       </c>
@@ -14681,7 +14681,7 @@
       </c>
       <c r="W156" s="14"/>
     </row>
-    <row r="157" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>42382</v>
       </c>
@@ -14723,7 +14723,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="24">
         <v>42383</v>
       </c>
@@ -14764,7 +14764,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43292</v>
       </c>
@@ -14806,7 +14806,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43292</v>
       </c>
@@ -14848,7 +14848,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>42382</v>
       </c>
@@ -14890,7 +14890,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>42382</v>
       </c>
@@ -14932,7 +14932,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>42382</v>
       </c>
@@ -14974,7 +14974,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" s="18">
         <v>42382</v>
       </c>
@@ -15016,7 +15016,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="18">
         <v>42396</v>
       </c>
@@ -15061,7 +15061,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>39247</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>40602</v>
       </c>
@@ -15145,7 +15145,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>42563</v>
       </c>
@@ -15186,7 +15186,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>42383</v>
       </c>
@@ -15231,7 +15231,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>42382</v>
       </c>
@@ -15273,7 +15273,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>42382</v>
       </c>
@@ -15315,7 +15315,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>42382</v>
       </c>
@@ -15357,7 +15357,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>42383</v>
       </c>
@@ -15402,7 +15402,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>42382</v>
       </c>
@@ -15444,7 +15444,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>42382</v>
       </c>
@@ -15487,7 +15487,7 @@
       <c r="Y175" s="15"/>
       <c r="Z175" s="9"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>42382</v>
       </c>
@@ -15529,7 +15529,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>42382</v>
       </c>
@@ -15571,7 +15571,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>42382</v>
       </c>
@@ -15612,7 +15612,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>38916</v>
       </c>
@@ -15655,7 +15655,7 @@
       <c r="Y179" s="15"/>
       <c r="Z179" s="9"/>
     </row>
-    <row r="180" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>38916</v>
       </c>
@@ -15698,7 +15698,7 @@
       <c r="Y180" s="15"/>
       <c r="Z180" s="9"/>
     </row>
-    <row r="181" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>38916</v>
       </c>
@@ -15740,7 +15740,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>39975</v>
       </c>
@@ -15780,7 +15780,7 @@
       </c>
       <c r="W182" s="14"/>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>42382</v>
       </c>
@@ -15822,7 +15822,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="2"/>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43292</v>
       </c>
@@ -15863,7 +15863,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24">
         <v>42399</v>
       </c>
@@ -15904,7 +15904,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>40946</v>
       </c>
@@ -15946,7 +15946,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>38916</v>
       </c>
@@ -15987,7 +15987,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="2"/>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>38916</v>
       </c>
@@ -16029,7 +16029,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="2"/>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>39277</v>
       </c>
@@ -16071,7 +16071,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>40805</v>
       </c>
@@ -16113,7 +16113,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>42809</v>
       </c>
@@ -16155,7 +16155,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="18">
         <v>42382</v>
       </c>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="18">
         <v>42396</v>
       </c>
@@ -16240,7 +16240,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="24">
         <v>42399</v>
       </c>
@@ -16281,7 +16281,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>38916</v>
       </c>
@@ -16323,7 +16323,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>38916</v>
       </c>
@@ -16365,7 +16365,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="2"/>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>42382</v>
       </c>
@@ -16407,7 +16407,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>42704</v>
       </c>
@@ -16448,7 +16448,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>42704</v>
       </c>
@@ -16488,7 +16488,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>42382</v>
       </c>
@@ -16530,7 +16530,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>42382</v>
       </c>
@@ -16572,7 +16572,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="2"/>
     </row>
-    <row r="202" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>38916</v>
       </c>
@@ -16615,7 +16615,7 @@
       <c r="Y202" s="15"/>
       <c r="Z202" s="9"/>
     </row>
-    <row r="203" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>38916</v>
       </c>
@@ -16657,7 +16657,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="2"/>
     </row>
-    <row r="204" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>38916</v>
       </c>
@@ -16699,7 +16699,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="2"/>
     </row>
-    <row r="205" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>40126</v>
       </c>
@@ -16741,7 +16741,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="2"/>
     </row>
-    <row r="206" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>42382</v>
       </c>
@@ -16783,7 +16783,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="2"/>
     </row>
-    <row r="207" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>42404</v>
       </c>
@@ -16828,7 +16828,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="2"/>
     </row>
-    <row r="208" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>38916</v>
       </c>
@@ -16870,7 +16870,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="2"/>
     </row>
-    <row r="209" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>38916</v>
       </c>
@@ -16913,7 +16913,7 @@
       <c r="Y209" s="15"/>
       <c r="Z209" s="9"/>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>40016</v>
       </c>
@@ -16956,7 +16956,7 @@
       <c r="Y210" s="15"/>
       <c r="Z210" s="9"/>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>42382</v>
       </c>
@@ -16999,7 +16999,7 @@
       <c r="Y211" s="15"/>
       <c r="Z211" s="9"/>
     </row>
-    <row r="212" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>38916</v>
       </c>
@@ -17041,7 +17041,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="2"/>
     </row>
-    <row r="213" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>38916</v>
       </c>
@@ -17083,7 +17083,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="2"/>
     </row>
-    <row r="214" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>39763</v>
       </c>
@@ -17125,7 +17125,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="2"/>
     </row>
-    <row r="215" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>42382</v>
       </c>
@@ -17166,7 +17166,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="2"/>
     </row>
-    <row r="216" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>42382</v>
       </c>
@@ -17208,7 +17208,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="2"/>
     </row>
-    <row r="217" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>42382</v>
       </c>
@@ -17250,7 +17250,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="2"/>
     </row>
-    <row r="218" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>42382</v>
       </c>
@@ -17292,7 +17292,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="2"/>
     </row>
-    <row r="219" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>42382</v>
       </c>
@@ -17334,7 +17334,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="2"/>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43291</v>
       </c>
@@ -17373,7 +17373,7 @@
       </c>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>42383</v>
       </c>
@@ -17418,7 +17418,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="2"/>
     </row>
-    <row r="222" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="24">
         <v>42383</v>
       </c>
@@ -17459,7 +17459,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="2"/>
     </row>
-    <row r="223" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>42382</v>
       </c>
@@ -17501,7 +17501,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="2"/>
     </row>
-    <row r="224" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>42382</v>
       </c>
@@ -17543,7 +17543,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="2"/>
     </row>
-    <row r="225" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>42382</v>
       </c>
@@ -17585,7 +17585,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="2"/>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>42382</v>
       </c>
@@ -17627,7 +17627,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="2"/>
     </row>
-    <row r="227" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>42382</v>
       </c>
@@ -17669,7 +17669,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="2"/>
     </row>
-    <row r="228" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>42382</v>
       </c>
@@ -17711,7 +17711,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="2"/>
     </row>
-    <row r="229" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>42382</v>
       </c>
@@ -17753,7 +17753,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="2"/>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>42382</v>
       </c>
@@ -17795,7 +17795,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="2"/>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>42396</v>
       </c>
@@ -17840,7 +17840,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="2"/>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>38916</v>
       </c>
@@ -17882,7 +17882,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="2"/>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>38916</v>
       </c>
@@ -17924,7 +17924,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="2"/>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>38916</v>
       </c>
@@ -17966,7 +17966,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="2"/>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>42382</v>
       </c>
@@ -18008,7 +18008,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="2"/>
     </row>
-    <row r="236" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>42382</v>
       </c>
@@ -18050,7 +18050,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="2"/>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>43371</v>
       </c>
@@ -18090,7 +18090,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>42384</v>
       </c>
@@ -18135,7 +18135,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="2"/>
     </row>
-    <row r="239" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>42382</v>
       </c>
@@ -18178,7 +18178,7 @@
       <c r="Y239" s="15"/>
       <c r="Z239" s="9"/>
     </row>
-    <row r="240" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>42382</v>
       </c>
@@ -18218,7 +18218,7 @@
       </c>
       <c r="W240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>42382</v>
       </c>
@@ -18260,7 +18260,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="2"/>
     </row>
-    <row r="242" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>42404</v>
       </c>
@@ -18305,7 +18305,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="2"/>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" s="24">
         <v>42396</v>
       </c>
@@ -18346,7 +18346,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="2"/>
     </row>
-    <row r="244" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>42704</v>
       </c>
@@ -18386,7 +18386,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="2"/>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>42704</v>
       </c>
@@ -18426,7 +18426,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="2"/>
     </row>
-    <row r="246" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>42704</v>
       </c>
@@ -18466,7 +18466,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="2"/>
     </row>
-    <row r="247" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>42704</v>
       </c>
@@ -18506,7 +18506,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="2"/>
     </row>
-    <row r="248" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>42382</v>
       </c>
@@ -18547,7 +18547,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="2"/>
     </row>
-    <row r="249" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>42383</v>
       </c>
@@ -18591,7 +18591,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="2"/>
     </row>
-    <row r="250" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>38917</v>
       </c>
@@ -18633,7 +18633,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="2"/>
     </row>
-    <row r="251" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>38917</v>
       </c>
@@ -18675,7 +18675,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="2"/>
     </row>
-    <row r="252" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>39310</v>
       </c>
@@ -18717,7 +18717,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="2"/>
     </row>
-    <row r="253" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>42382</v>
       </c>
@@ -18759,7 +18759,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="2"/>
     </row>
-    <row r="254" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>42563</v>
       </c>
@@ -18800,7 +18800,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="2"/>
     </row>
-    <row r="255" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>42383</v>
       </c>
@@ -18845,7 +18845,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="2"/>
     </row>
-    <row r="256" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="18">
         <v>42382</v>
       </c>
@@ -18887,7 +18887,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="2"/>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257" s="18">
         <v>42383</v>
       </c>
@@ -18932,7 +18932,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>42382</v>
       </c>
@@ -18974,7 +18974,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="2"/>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>42382</v>
       </c>
@@ -19016,7 +19016,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>38917</v>
       </c>
@@ -19058,7 +19058,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>38917</v>
       </c>
@@ -19101,7 +19101,7 @@
       <c r="Y261" s="15"/>
       <c r="Z261" s="9"/>
     </row>
-    <row r="262" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>38917</v>
       </c>
@@ -19143,7 +19143,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>39324</v>
       </c>
@@ -19184,7 +19184,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>42382</v>
       </c>
@@ -19226,7 +19226,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="24">
         <v>42382</v>
       </c>
@@ -19264,7 +19264,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>42286</v>
       </c>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="W266" s="1"/>
     </row>
-    <row r="267" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="32">
         <v>42104</v>
       </c>
@@ -19348,7 +19348,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="2"/>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>42695</v>
       </c>
@@ -19389,7 +19389,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>43272</v>
       </c>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="W269" s="1"/>
     </row>
-    <row r="270" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>43369</v>
       </c>
@@ -19468,7 +19468,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="2"/>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>42383</v>
       </c>
@@ -19513,7 +19513,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>42382</v>
       </c>
@@ -19555,7 +19555,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="24">
         <v>42383</v>
       </c>
@@ -19596,7 +19596,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>42382</v>
       </c>
@@ -19638,7 +19638,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="2"/>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>38915</v>
       </c>
@@ -19680,7 +19680,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>39982</v>
       </c>
@@ -19723,7 +19723,7 @@
       <c r="Y276" s="15"/>
       <c r="Z276" s="9"/>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>42563</v>
       </c>
@@ -19765,7 +19765,7 @@
       <c r="Y277" s="15"/>
       <c r="Z277" s="9"/>
     </row>
-    <row r="278" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>38917</v>
       </c>
@@ -19807,7 +19807,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>38917</v>
       </c>
@@ -19849,7 +19849,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>42382</v>
       </c>
@@ -19891,7 +19891,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="18">
         <v>42382</v>
       </c>
@@ -19933,7 +19933,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="18">
         <v>42399</v>
       </c>
@@ -19978,7 +19978,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>43292</v>
       </c>
@@ -20019,7 +20019,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>43446</v>
       </c>
@@ -20059,7 +20059,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>42382</v>
       </c>
@@ -20101,7 +20101,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>43291</v>
       </c>
@@ -20142,7 +20142,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="18">
         <v>42382</v>
       </c>
@@ -20184,7 +20184,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="18">
         <v>42383</v>
       </c>
@@ -20229,7 +20229,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>42382</v>
       </c>
@@ -20271,7 +20271,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="2"/>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>42382</v>
       </c>
@@ -20313,7 +20313,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>42382</v>
       </c>
@@ -20355,7 +20355,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>42384</v>
       </c>
@@ -20400,7 +20400,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="18">
         <v>42382</v>
       </c>
@@ -20442,7 +20442,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="18">
         <v>42383</v>
       </c>
@@ -20487,7 +20487,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="2"/>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>38917</v>
       </c>
@@ -20529,7 +20529,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>38917</v>
       </c>
@@ -20570,7 +20570,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>38917</v>
       </c>
@@ -20612,7 +20612,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>38917</v>
       </c>
@@ -20654,7 +20654,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>40857</v>
       </c>
@@ -20696,7 +20696,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>42794</v>
       </c>
@@ -20738,7 +20738,7 @@
       <c r="Y300" s="15"/>
       <c r="Z300" s="9"/>
     </row>
-    <row r="301" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>42382</v>
       </c>
@@ -20781,7 +20781,7 @@
       <c r="Y301" s="15"/>
       <c r="Z301" s="9"/>
     </row>
-    <row r="302" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>38917</v>
       </c>
@@ -20823,7 +20823,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>38917</v>
       </c>
@@ -20866,7 +20866,7 @@
       <c r="Y303" s="15"/>
       <c r="Z303" s="9"/>
     </row>
-    <row r="304" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>38917</v>
       </c>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="W304" s="1"/>
     </row>
-    <row r="305" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>39307</v>
       </c>
@@ -20949,7 +20949,7 @@
       <c r="Y305" s="15"/>
       <c r="Z305" s="9"/>
     </row>
-    <row r="306" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>42382</v>
       </c>
@@ -20991,7 +20991,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>43291</v>
       </c>
@@ -21032,7 +21032,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="2"/>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>43292</v>
       </c>
@@ -21073,7 +21073,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="2"/>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A309" s="24">
         <v>42383</v>
       </c>
@@ -21114,7 +21114,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="2"/>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>38917</v>
       </c>
@@ -21157,7 +21157,7 @@
       <c r="Y310" s="15"/>
       <c r="Z310" s="9"/>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>38917</v>
       </c>
@@ -21200,7 +21200,7 @@
       <c r="Y311" s="15"/>
       <c r="Z311" s="9"/>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>42382</v>
       </c>
@@ -21243,7 +21243,7 @@
       <c r="Y312" s="2"/>
       <c r="AA312" s="9"/>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>42382</v>
       </c>
@@ -21286,7 +21286,7 @@
       <c r="Y313" s="2"/>
       <c r="AA313" s="9"/>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>42404</v>
       </c>
@@ -21331,7 +21331,7 @@
       <c r="Y314" s="2"/>
       <c r="AA314" s="9"/>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>38917</v>
       </c>
@@ -21373,7 +21373,7 @@
       <c r="Y315" s="2"/>
       <c r="AA315" s="9"/>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>43494</v>
       </c>
@@ -21413,7 +21413,7 @@
       <c r="Y316" s="2"/>
       <c r="AA316" s="9"/>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>38917</v>
       </c>
@@ -21455,7 +21455,7 @@
       <c r="Y317" s="2"/>
       <c r="AA317" s="9"/>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>38917</v>
       </c>
@@ -21497,7 +21497,7 @@
       <c r="Y318" s="2"/>
       <c r="AA318" s="9"/>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>38917</v>
       </c>
@@ -21539,7 +21539,7 @@
       <c r="Y319" s="2"/>
       <c r="AA319" s="9"/>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>40255</v>
       </c>
@@ -21581,7 +21581,7 @@
       <c r="Y320" s="2"/>
       <c r="AA320" s="9"/>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>42382</v>
       </c>
@@ -21623,7 +21623,7 @@
       <c r="Y321" s="2"/>
       <c r="AA321" s="9"/>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>38917</v>
       </c>
@@ -21662,7 +21662,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>38917</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>40189</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>39392</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>42382</v>
       </c>
@@ -21820,7 +21820,7 @@
       <c r="X326" s="2"/>
       <c r="AA326" s="9"/>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>42794</v>
       </c>
@@ -21860,17 +21860,17 @@
       <c r="X327" s="2"/>
       <c r="AA327" s="9"/>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.3">
       <c r="X328" s="2"/>
       <c r="AA328" s="9"/>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.3">
       <c r="X329" s="15"/>
       <c r="Y329" s="9"/>
       <c r="Z329" s="9"/>
       <c r="AA329" s="9"/>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.3">
       <c r="X330" s="2"/>
       <c r="AA330" s="9"/>
     </row>
@@ -21892,17 +21892,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>623</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>542</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>563</v>
       </c>
@@ -21926,7 +21926,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>565</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>578</v>
       </c>
@@ -21942,7 +21942,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>595</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>605</v>
       </c>
@@ -21958,7 +21958,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>605</v>
       </c>
@@ -21985,15 +21985,15 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>629</v>
       </c>
@@ -22001,7 +22001,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>779</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>624</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>717</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>722</v>
       </c>
@@ -22117,7 +22117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>718</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>724</v>
       </c>
@@ -22179,7 +22179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>719</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>765</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>765</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>720</v>
       </c>
@@ -22306,7 +22306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>723</v>
       </c>
@@ -22341,7 +22341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>721</v>
       </c>
@@ -22374,7 +22374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>780</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>716</v>
       </c>
@@ -22438,7 +22438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>716</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>763</v>
       </c>
@@ -22504,7 +22504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>766</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>764</v>
       </c>
@@ -22570,7 +22570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>625</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I24" s="37" t="s">
         <v>802</v>
       </c>
@@ -22613,7 +22613,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="38" t="s">
         <v>801</v>
       </c>
